--- a/GL110_TestData_ViewJournals_21B.xlsx
+++ b/GL110_TestData_ViewJournals_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1381B-2FA7-4256-B424-824BCDBE8C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251111DD-6B7C-4B7D-AB01-EBBC98930325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,88 +34,21 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D605F7BC-1154-4DBE-932D-10F650929239}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Journal Name should exist.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>JournalBatchAcctPeriod</t>
-  </si>
-  <si>
-    <t>JournalCategory</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>AccountingPRd</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>value||101.0000.741003.000000.0000.000.0000</t>
-  </si>
-  <si>
     <t>JournalNameR</t>
   </si>
   <si>
-    <t>AccountVJ</t>
-  </si>
-  <si>
-    <t>DebitAmtVJ</t>
-  </si>
-  <si>
     <t>SavedSearch</t>
   </si>
   <si>
     <t>All Journals</t>
   </si>
   <si>
-    <t>value||500.00</t>
-  </si>
-  <si>
-    <t>value||Feb-2021</t>
-  </si>
-  <si>
-    <t>value||Accrual</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -140,14 +73,48 @@
     <t>HighestExplicitWait</t>
   </si>
   <si>
-    <t>2021-05</t>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>AccountValidation</t>
+  </si>
+  <si>
+    <t>DebitAmountValidation</t>
+  </si>
+  <si>
+    <t>JournalBatchAcctPeriodValidation</t>
+  </si>
+  <si>
+    <t>JournalCategoryValidation</t>
+  </si>
+  <si>
+    <t>15021990-20210330-slc-2</t>
+  </si>
+  <si>
+    <t>Journal Name should Exist in the system</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Please provide all the details in this sheet wrt the Journal Name 
+* JournalBatchAcctPeriodValidation
+* JournalCategoryValidation
+* AccountValidation
+* DebitAmountValidation</t>
+  </si>
+  <si>
+    <t>220.31863.204021.10081.100.00000.000.0000.0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,40 +131,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF333333"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,31 +152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,60 +181,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,145 +524,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.453125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.7265625" style="3"/>
-    <col min="17" max="17" width="33.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.90625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="26.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.90625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1">
+        <v>60</v>
+      </c>
+      <c r="O2" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5">
-        <v>60</v>
-      </c>
-      <c r="H2" s="5">
-        <v>120</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GL110_TestData_ViewJournals_21B.xlsx
+++ b/GL110_TestData_ViewJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251111DD-6B7C-4B7D-AB01-EBBC98930325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298A137-0A9D-4A60-A39E-51A7704FA9EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -91,13 +89,7 @@
     <t>JournalCategoryValidation</t>
   </si>
   <si>
-    <t>15021990-20210330-slc-2</t>
-  </si>
-  <si>
     <t>Journal Name should Exist in the system</t>
-  </si>
-  <si>
-    <t>330</t>
   </si>
   <si>
     <t>Please provide all the details in this sheet wrt the Journal Name 
@@ -107,7 +99,13 @@
 * DebitAmountValidation</t>
   </si>
   <si>
-    <t>220.31863.204021.10081.100.00000.000.0000.0000</t>
+    <t>15021990-20210401-slc-5</t>
+  </si>
+  <si>
+    <t>220.31933.204404.40328.100.00000.000.0000.0000</t>
+  </si>
+  <si>
+    <t>401</t>
   </si>
 </sst>
 </file>
@@ -528,7 +526,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +590,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -604,10 +602,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -639,12 +637,12 @@
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
